--- a/desenvolvimento/teste rentabilidade.xlsx
+++ b/desenvolvimento/teste rentabilidade.xlsx
@@ -719,7 +719,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
